--- a/output/0/tRNA-Arg-CCG-1-1.xlsx
+++ b/output/0/tRNA-Arg-CCG-1-1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="74">
   <si>
     <t>chr6</t>
   </si>
@@ -234,45 +234,6 @@
   </si>
   <si>
     <t>72</t>
-  </si>
-  <si>
-    <t>28710907</t>
-  </si>
-  <si>
-    <t>28710930</t>
-  </si>
-  <si>
-    <t>28710927</t>
-  </si>
-  <si>
-    <t>AGGGGGGCGGGGAGAGGCGG</t>
-  </si>
-  <si>
-    <t>23% (40)</t>
-  </si>
-  <si>
-    <t>100% (109)</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>28710910</t>
-  </si>
-  <si>
-    <t>28710933</t>
-  </si>
-  <si>
-    <t>GGGGCGGGGAGAGGCGGGGG</t>
-  </si>
-  <si>
-    <t>9% (31)</t>
-  </si>
-  <si>
-    <t>100% (106)</t>
-  </si>
-  <si>
-    <t>63</t>
   </si>
 </sst>
 </file>
@@ -317,7 +278,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -795,124 +756,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" t="s">
-        <v>76</v>
-      </c>
-      <c r="H9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" t="s">
-        <v>77</v>
-      </c>
-      <c r="L9" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" t="s">
-        <v>10</v>
-      </c>
-      <c r="N9" t="s">
-        <v>78</v>
-      </c>
-      <c r="O9" t="s">
-        <v>79</v>
-      </c>
-      <c r="P9" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>25</v>
-      </c>
-      <c r="R9" t="s">
-        <v>15</v>
-      </c>
-      <c r="S9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" t="s">
-        <v>83</v>
-      </c>
-      <c r="L10" t="s">
-        <v>39</v>
-      </c>
-      <c r="M10" t="s">
-        <v>10</v>
-      </c>
-      <c r="N10" t="s">
-        <v>84</v>
-      </c>
-      <c r="O10" t="s">
-        <v>85</v>
-      </c>
-      <c r="P10" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>86</v>
-      </c>
-      <c r="R10" t="s">
-        <v>15</v>
-      </c>
-      <c r="S10" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
